--- a/Data/Tab_shift_share.xlsx
+++ b/Data/Tab_shift_share.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Documents/Anvendt by og reg/Arbeidskrav-by-reg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Documents/Anvendt by og reg/Arbeidskrav-by-reg/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B5EDAC1-0DC7-0846-9DCB-4C57C1473DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D4D562-0B25-2C46-8163-F264C2C26543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{63FB3431-114A-C844-9ECC-F5AC06B4B2B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>Region</t>
   </si>
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t>Midtre</t>
-  </si>
-  <si>
-    <t>2000-2005</t>
-  </si>
-  <si>
-    <t>2005-2010</t>
-  </si>
-  <si>
-    <t>2010-2015</t>
-  </si>
-  <si>
-    <t>2015-2020</t>
   </si>
   <si>
     <t>2000-2020</t>
@@ -450,7 +438,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,8 +461,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>2005</v>
       </c>
       <c r="C2" s="3">
         <v>-4.4687284107705054E-2</v>
@@ -487,8 +475,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="2">
+        <v>2010</v>
       </c>
       <c r="C3" s="3">
         <v>-6.1110965217981268E-2</v>
@@ -501,8 +489,8 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="2">
+        <v>2015</v>
       </c>
       <c r="C4" s="3">
         <v>-2.9270279925144943E-2</v>
@@ -515,8 +503,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="B5" s="2">
+        <v>2020</v>
       </c>
       <c r="C5" s="3">
         <v>-1.4583283811715817E-2</v>
@@ -530,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>-0.15654337761299911</v>
@@ -543,8 +531,8 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="2">
+        <v>2005</v>
       </c>
       <c r="C7" s="3">
         <v>-2.3666364764215041E-2</v>
@@ -557,8 +545,8 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="2">
+        <v>2010</v>
       </c>
       <c r="C8" s="3">
         <v>2.5648368338314152E-2</v>
@@ -571,8 +559,8 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="2">
+        <v>2015</v>
       </c>
       <c r="C9" s="3">
         <v>-1.1090242830103566E-3</v>
@@ -585,8 +573,8 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="2">
+        <v>2020</v>
       </c>
       <c r="C10" s="3">
         <v>-1.3482110980177734E-2</v>
@@ -600,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <v>-2.730962134977782E-2</v>
@@ -611,10 +599,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2005</v>
       </c>
       <c r="C12" s="3">
         <v>-2.8000000000000001E-2</v>
@@ -625,10 +613,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2010</v>
       </c>
       <c r="C13" s="3">
         <v>-3.7499999999999999E-2</v>
@@ -639,10 +627,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2015</v>
       </c>
       <c r="C14" s="3">
         <v>-1.2E-2</v>
@@ -653,10 +641,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2020</v>
       </c>
       <c r="C15" s="3">
         <v>-9.1000000000000004E-3</v>
@@ -667,10 +655,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
         <v>-9.4799999999999995E-2</v>
@@ -681,10 +669,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2005</v>
       </c>
       <c r="C17" s="3">
         <v>-3.04E-2</v>
@@ -695,10 +683,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2010</v>
       </c>
       <c r="C18" s="3">
         <v>-3.4299999999999997E-2</v>
@@ -709,10 +697,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2015</v>
       </c>
       <c r="C19" s="3">
         <v>-2.0400000000000001E-2</v>
@@ -723,10 +711,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2020</v>
       </c>
       <c r="C20" s="3">
         <v>-9.4999999999999998E-3</v>
@@ -737,10 +725,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>-9.3600000000000003E-2</v>

--- a/Data/Tab_shift_share.xlsx
+++ b/Data/Tab_shift_share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Documents/Anvendt by og reg/Arbeidskrav-by-reg/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D4D562-0B25-2C46-8163-F264C2C26543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FBE18-2052-324E-B20A-78413839C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{63FB3431-114A-C844-9ECC-F5AC06B4B2B6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{63FB3431-114A-C844-9ECC-F5AC06B4B2B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Region</t>
   </si>
@@ -61,15 +61,31 @@
   </si>
   <si>
     <t>Haugalandet</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>2000-2005</t>
+  </si>
+  <si>
+    <t>2005-2010</t>
+  </si>
+  <si>
+    <t>2010-2015</t>
+  </si>
+  <si>
+    <t>2015-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -115,11 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -435,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E98DBD3-00E1-094B-BB60-18D93B3EFB45}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,13 +473,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>2005</v>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="3">
         <v>-4.4687284107705054E-2</v>
@@ -470,13 +490,17 @@
       <c r="D2" s="3">
         <v>3.5908825801857017E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <f>C2+D2</f>
+        <v>-8.7784583058480373E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>2010</v>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>-6.1110965217981268E-2</v>
@@ -484,13 +508,17 @@
       <c r="D3" s="3">
         <v>7.5502025658990807E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E21" si="0">C3+D3</f>
+        <v>1.4391060441009539E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>2015</v>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>-2.9270279925144943E-2</v>
@@ -498,13 +526,17 @@
       <c r="D4" s="3">
         <v>1.8884882358833024E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0385397566311919E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>2020</v>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>-1.4583283811715817E-2</v>
@@ -512,8 +544,12 @@
       <c r="D5" s="3">
         <v>-5.2140895151973538E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>-6.672417896368936E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,13 +562,17 @@
       <c r="D6" s="3">
         <v>8.2875672533821471E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.3667705079177637E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>2005</v>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>-2.3666364764215041E-2</v>
@@ -540,13 +580,17 @@
       <c r="D7" s="3">
         <v>1.6249782705948287E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>-7.416582058266754E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>2010</v>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>2.5648368338314152E-2</v>
@@ -554,13 +598,17 @@
       <c r="D8" s="3">
         <v>1.7324746514658311E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2973114852972463E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>2015</v>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>-1.1090242830103566E-3</v>
@@ -568,13 +616,17 @@
       <c r="D9" s="3">
         <v>-7.540561784372902E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.6495860673832595E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>2020</v>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>-1.3482110980177734E-2</v>
@@ -582,8 +634,12 @@
       <c r="D10" s="3">
         <v>-8.1661545989766895E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>-9.5143656969944632E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,13 +652,17 @@
       <c r="D11" s="3">
         <v>-6.1242488544011049E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.8552109893788866E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>2005</v>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>-2.8000000000000001E-2</v>
@@ -610,13 +670,17 @@
       <c r="D12" s="3">
         <v>4.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>2010</v>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>-3.7499999999999999E-2</v>
@@ -624,13 +688,17 @@
       <c r="D13" s="3">
         <v>2.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
-        <v>2015</v>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>-1.2E-2</v>
@@ -638,13 +706,17 @@
       <c r="D14" s="3">
         <v>-1.0699999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.2699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
-        <v>2020</v>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>-9.1000000000000004E-3</v>
@@ -652,8 +724,12 @@
       <c r="D15" s="3">
         <v>-1.15E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.06E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,13 +742,17 @@
       <c r="D16" s="3">
         <v>5.3199999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
-        <v>2005</v>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>-3.04E-2</v>
@@ -680,13 +760,17 @@
       <c r="D17" s="3">
         <v>3.9800000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000021E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
-        <v>2010</v>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>-3.4299999999999997E-2</v>
@@ -694,13 +778,17 @@
       <c r="D18" s="3">
         <v>3.5799999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000013E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2">
-        <v>2015</v>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>-2.0400000000000001E-2</v>
@@ -708,13 +796,17 @@
       <c r="D19" s="3">
         <v>0.14849999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12809999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
-        <v>2020</v>
+      <c r="B20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>-9.4999999999999998E-3</v>
@@ -722,8 +814,12 @@
       <c r="D20" s="3">
         <v>-6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,6 +831,10 @@
       </c>
       <c r="D21" s="3">
         <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.9200000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Tab_shift_share.xlsx
+++ b/Data/Tab_shift_share.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Morten/Documents/Anvendt by og reg/Arbeidskrav-by-reg/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FBE18-2052-324E-B20A-78413839C071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4222E5-67E7-A644-AB91-8CBBDAFA690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{63FB3431-114A-C844-9ECC-F5AC06B4B2B6}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,14 +791,14 @@
         <v>12</v>
       </c>
       <c r="C19" s="3">
-        <v>-2.0400000000000001E-2</v>
+        <v>-1.3599999999999999E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>0.14849999999999999</v>
+        <v>-5.3E-3</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0.12809999999999999</v>
+        <v>-1.89E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -827,14 +827,14 @@
         <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>-9.3600000000000003E-2</v>
+        <v>-9.8199999999999996E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>4.4400000000000002E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>-4.9200000000000001E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
